--- a/txt_to_json_converter/Rozpiska tygodni.xlsx
+++ b/txt_to_json_converter/Rozpiska tygodni.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\projekty\UMlub-nie-umie-w-plan-lekcji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\projekty\UMlub-nie-umie-w-plan-lekcji\txt_to_json_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074350A-755B-4354-BE2A-4DD7A0D52056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABDF76C-2D9C-4C73-ABBC-907CB15752D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{12D9AF85-2611-4F3D-942B-AD4D16DF0EAB}"/>
   </bookViews>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,6 +143,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -480,7 +483,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="L6" activeCellId="2" sqref="A6:F6 K7:N7 L6"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1026,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="12">
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
@@ -1096,7 +1099,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>

--- a/txt_to_json_converter/Rozpiska tygodni.xlsx
+++ b/txt_to_json_converter/Rozpiska tygodni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\projekty\UMlub-nie-umie-w-plan-lekcji\txt_to_json_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABDF76C-2D9C-4C73-ABBC-907CB15752D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697FDB1-EF26-4C18-9070-04409F0E41A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{12D9AF85-2611-4F3D-942B-AD4D16DF0EAB}"/>
   </bookViews>
@@ -80,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -118,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +151,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B752F864-8877-465E-8B00-A4BA24BCFADE}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,11 +643,11 @@
         <v>1</v>
       </c>
       <c r="T2" s="6">
-        <f t="shared" ref="T2:T16" si="2">B2-K2</f>
+        <f t="shared" ref="T2:T18" si="2">B2-K2</f>
         <v>7</v>
       </c>
       <c r="U2" s="6">
-        <f t="shared" ref="U2:Z16" si="3">C2-L2</f>
+        <f t="shared" ref="U2:Z17" si="3">C2-L2</f>
         <v>0</v>
       </c>
       <c r="V2" s="6">
@@ -726,7 +735,7 @@
         <v>45578</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" ref="S3:S16" si="5">A3</f>
+        <f t="shared" ref="S3:S18" si="5">A3</f>
         <v>2</v>
       </c>
       <c r="T3" s="6">
@@ -742,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W16" si="6">E3-N3</f>
+        <f t="shared" ref="W3:W18" si="6">E3-N3</f>
         <v>0</v>
       </c>
       <c r="X3" s="6">
-        <f t="shared" ref="X3:X16" si="7">F3-O3</f>
+        <f t="shared" ref="X3:X18" si="7">F3-O3</f>
         <v>0</v>
       </c>
       <c r="Y3" s="6">
-        <f t="shared" ref="Y3:Y16" si="8">G3-P3</f>
+        <f t="shared" ref="Y3:Y18" si="8">G3-P3</f>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f t="shared" ref="Z3:Z16" si="9">H3-Q3</f>
+        <f t="shared" ref="Z3:Z18" si="9">H3-Q3</f>
         <v>0</v>
       </c>
       <c r="AA3" s="4"/>
@@ -794,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:Q19" si="10">K3+7</f>
+        <f t="shared" ref="K4:Q21" si="10">K3+7</f>
         <v>45579</v>
       </c>
       <c r="L4" s="1">
@@ -1060,7 +1069,7 @@
         <v>45613</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" ref="I7:I16" si="11">A7</f>
+        <f t="shared" ref="I7:I18" si="11">A7</f>
         <v>6</v>
       </c>
       <c r="J7" s="6">
@@ -1708,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" ref="B14:C16" si="13">B13+7</f>
+        <f t="shared" ref="B14:C18" si="13">B13+7</f>
         <v>45677</v>
       </c>
       <c r="C14" s="7">
@@ -1911,7 +1920,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="13">
         <f t="shared" si="13"/>
         <v>45691</v>
       </c>
@@ -2009,8 +2018,41 @@
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I17" s="9"/>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
+        <v>45691</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="13"/>
+        <v>45692</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:H17" si="15">D16+7</f>
+        <v>45693</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="15"/>
+        <v>45694</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="15"/>
+        <v>45695</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="15"/>
+        <v>45696</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="15"/>
+        <v>45697</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
       <c r="J17" s="6">
         <f t="shared" si="12"/>
         <v>16</v>
@@ -2043,9 +2085,75 @@
         <f t="shared" si="10"/>
         <v>45676</v>
       </c>
+      <c r="S17" s="5">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="X17" s="6">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Y17" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="Z17" s="6">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="9"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <f>B17+7</f>
+        <v>45698</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="13"/>
+        <v>45699</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:H18" si="16">D17+7</f>
+        <v>45700</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="16"/>
+        <v>45701</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="16"/>
+        <v>45702</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="16"/>
+        <v>45703</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="16"/>
+        <v>45704</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
       <c r="J18" s="2">
         <v>17</v>
       </c>
@@ -2077,8 +2185,40 @@
         <f t="shared" si="10"/>
         <v>45683</v>
       </c>
+      <c r="S18" s="5">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" ref="U18" si="17">C18-L18</f>
+        <v>21</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" ref="V18" si="18">D18-M18</f>
+        <v>21</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="Y18" s="6">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I19" s="9"/>
       <c r="J19" s="2">
         <v>18</v>
@@ -2096,30 +2236,86 @@
         <v>45686</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N19:Q19" si="19">N18+7</f>
         <v>45687</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>45688</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>45689</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>45690</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I20" s="9"/>
       <c r="J20" s="2">
         <v>19</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ref="K20" si="15">K19+7</f>
+        <f t="shared" ref="K20" si="20">K19+7</f>
         <v>45691</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="10"/>
+        <v>45692</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" ref="M20:Q20" si="21">M19+7</f>
+        <v>45693</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="21"/>
+        <v>45694</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="21"/>
+        <v>45695</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="21"/>
+        <v>45696</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="21"/>
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45698</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="10"/>
+        <v>45699</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21:Q21" si="22">M20+7</f>
+        <v>45700</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="22"/>
+        <v>45701</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="22"/>
+        <v>45702</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="22"/>
+        <v>45703</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="22"/>
+        <v>45704</v>
       </c>
     </row>
   </sheetData>
